--- a/MONITORAMENTO DA TEMPERATURA DO SUBSOLO DE OURO VERDE - SP.xlsx
+++ b/MONITORAMENTO DA TEMPERATURA DO SUBSOLO DE OURO VERDE - SP.xlsx
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7777777777778" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
